--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>nim</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Desanty Ridzky</t>
   </si>
   <si>
-    <t>Novelty</t>
-  </si>
-  <si>
     <t>Hafidz Abdurrahman</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>Satrio Adi Prabowo</t>
-  </si>
-  <si>
     <t>Kadek Dendi Dwi Andita</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>Jonathan Marihot Parulian</t>
   </si>
   <si>
-    <t>Muhammad Yuslan Abubakar</t>
-  </si>
-  <si>
     <t>I Putu Indra Aristya</t>
   </si>
   <si>
@@ -94,12 +85,6 @@
     <t>Arief Rachmat Ramadhan</t>
   </si>
   <si>
-    <t>Al Mira Khonsa</t>
-  </si>
-  <si>
-    <t>Angky Fajriati MS Musa</t>
-  </si>
-  <si>
     <t>Wahyu Lintang</t>
   </si>
   <si>
@@ -110,9 +95,6 @@
   </si>
   <si>
     <t>Atika Wahyugirini</t>
-  </si>
-  <si>
-    <t>Muhammad Wildan Iskandar</t>
   </si>
   <si>
     <t>Widya Wirachantika</t>
@@ -475,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +508,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1301154522</v>
+        <v>1301140015</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -535,15 +517,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1">
-        <v>93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1301140015</v>
+        <v>1301140181</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -552,41 +534,41 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1301140181</v>
+        <v>1301144176</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1301144176</v>
+        <v>1301140426</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -594,24 +576,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1301140154</v>
+        <v>1301154674</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1301140426</v>
+        <v>1301140256</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -620,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -628,194 +610,194 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1301154674</v>
+        <v>1301154219</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1">
-        <v>99</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1301140256</v>
+        <v>1301144286</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1301141071</v>
+        <v>1301144101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1301154219</v>
+        <v>1301144416</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1301144286</v>
+        <v>1301140016</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1301144101</v>
+        <v>1301144036</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1301144416</v>
+        <v>1301140274</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1301140016</v>
+        <v>1301144115</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1301144036</v>
+        <v>1301144281</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1301140274</v>
+        <v>1301144086</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1301144115</v>
+        <v>1301140096</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1301144281</v>
+        <v>1301144376</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -824,66 +806,66 @@
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1301144086</v>
+        <v>1301144266</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1301140096</v>
+        <v>1301140326</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1301144327</v>
+        <v>1301144211</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1301141221</v>
+        <v>1301144011</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
@@ -892,49 +874,49 @@
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>1301144376</v>
+        <v>1301144391</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1301144266</v>
+        <v>1301154480</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1301140326</v>
+        <v>1301144006</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>30</v>
@@ -943,15 +925,15 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1301144211</v>
+        <v>1301154242</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>31</v>
@@ -960,112 +942,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>1301144316</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1301144011</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>1301144391</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
         <v>86</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1301154480</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>1301144006</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>63</v>
-      </c>
-      <c r="E33" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>1301154242</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
